--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksoane\Documents\GitHub\COMP1004ComputingProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveplymouthac-my.sharepoint.com/personal/kayleigh_soane_students_plymouth_ac_uk/Documents/Github Repositories/COMP1004ComputingProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{BCF52E15-7D68-4602-832E-A696C3A242EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:11_{BCF52E15-7D68-4602-832E-A696C3A242EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32E31BC4-4177-4622-8D0D-2F9468F2057B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2290" yWindow="6200" windowWidth="14400" windowHeight="8710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,7 +565,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -601,6 +601,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -639,21 +645,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -678,35 +669,6 @@
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -818,6 +780,35 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -1066,20 +1057,20 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.58203125" style="4" customWidth="1"/>
     <col min="8" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1089,14 +1080,14 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1104,66 +1095,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="33"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="35"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="34" t="s">
+      <c r="AA2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="36"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="35"/>
       <c r="AH2" s="19"/>
-      <c r="AI2" s="21" t="s">
+      <c r="AI2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-    </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+    </row>
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1189,13 +1180,13 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1377,15 +1368,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -1397,15 +1388,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -1417,15 +1408,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -1437,15 +1428,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37" t="s">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -1457,15 +1448,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -1477,15 +1468,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -1497,15 +1488,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -1517,8 +1508,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="6">
@@ -1537,15 +1528,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38" t="s">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1557,15 +1548,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
       </c>
       <c r="D14" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -1577,15 +1568,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="38" t="s">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -1597,15 +1588,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
       </c>
       <c r="D16" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -1617,15 +1608,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38" t="s">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1637,15 +1628,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1657,8 +1648,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38" t="s">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="6">
@@ -1677,8 +1668,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37" t="s">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="6">
@@ -1697,8 +1688,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="38" t="s">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="6">
@@ -1717,8 +1708,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="37" t="s">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="6">
@@ -1737,8 +1728,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="38" t="s">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="6">
@@ -1757,8 +1748,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="37" t="s">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="6">
@@ -1777,8 +1768,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38" t="s">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="6">
@@ -1797,8 +1788,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="37" t="s">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="6">
@@ -1817,8 +1808,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="38" t="s">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="6">
@@ -1837,8 +1828,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="37" t="s">
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="6">
@@ -1857,8 +1848,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="38" t="s">
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="6">
@@ -1877,8 +1868,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="37" t="s">
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="6">
@@ -1912,40 +1903,40 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO30">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>H$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:BO30">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveplymouthac-my.sharepoint.com/personal/kayleigh_soane_students_plymouth_ac_uk/Documents/Github Repositories/COMP1004ComputingProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:11_{BCF52E15-7D68-4602-832E-A696C3A242EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32E31BC4-4177-4622-8D0D-2F9468F2057B}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:11_{BCF52E15-7D68-4602-832E-A696C3A242EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EEBDB17-A28F-4932-AADA-CA1581FE6C9F}"/>
   <bookViews>
-    <workbookView xWindow="2290" yWindow="6200" windowWidth="14400" windowHeight="8710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2290" yWindow="0" windowWidth="14400" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
   </si>
   <si>
     <t>Activity 16</t>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Use buttons to decide what language to output</t>
+  </si>
+  <si>
+    <t>If text too big for box, can scroll down inside box</t>
   </si>
 </sst>
 </file>
@@ -824,6 +824,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1057,8 +1061,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1082,21 +1086,21 @@
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="14">
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
@@ -1104,21 +1108,21 @@
       <c r="O2" s="33"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" s="34"/>
       <c r="S2" s="34"/>
       <c r="T2" s="33"/>
       <c r="U2" s="17"/>
       <c r="V2" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W2" s="24"/>
       <c r="X2" s="24"/>
       <c r="Y2" s="35"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB2" s="24"/>
       <c r="AC2" s="24"/>
@@ -1128,7 +1132,7 @@
       <c r="AG2" s="35"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ2" s="24"/>
       <c r="AK2" s="24"/>
@@ -1143,19 +1147,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="30" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>1</v>
@@ -1370,7 +1374,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -1379,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -1390,19 +1394,19 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6">
         <v>4</v>
       </c>
       <c r="E6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -1410,16 +1414,16 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -1430,7 +1434,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -1450,7 +1454,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -1470,7 +1474,7 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -1490,7 +1494,7 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -1510,7 +1514,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1530,7 +1534,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -1550,7 +1554,7 @@
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -1570,7 +1574,7 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -1590,7 +1594,7 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -1610,7 +1614,7 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -1630,7 +1634,7 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -1650,7 +1654,7 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="22" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -1670,7 +1674,7 @@
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -1690,7 +1694,7 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -1710,7 +1714,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -1730,7 +1734,7 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -1750,7 +1754,7 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -1770,7 +1774,7 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -1790,7 +1794,7 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -1810,7 +1814,7 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -1830,7 +1834,7 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -1850,7 +1854,7 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -1870,7 +1874,7 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
